--- a/data/categorial_size_experiment/results/A_5000_cs results non archi.xlsx
+++ b/data/categorial_size_experiment/results/A_5000_cs results non archi.xlsx
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.439</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.551</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="4">
@@ -390,7 +390,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -398,39 +398,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.194</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.4076</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5598</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0104</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.2064</v>
+        <v>0.5908</v>
       </c>
     </row>
   </sheetData>
